--- a/medicine/Enfance/Rafle_de_la_rue_Vauquelin/Rafle_de_la_rue_Vauquelin.xlsx
+++ b/medicine/Enfance/Rafle_de_la_rue_Vauquelin/Rafle_de_la_rue_Vauquelin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La rafle de la rue Vauquelin est perpétrée dans la nuit du 21 au 22 juillet 1944 au no 9 de la rue Vauquelin dans le 5e arrondissement de Paris, au siège du Séminaire israélite de France[1],[2] (ne pouvant pas fonctionner en ces lieux à cause de la guerre) dans un centre de l'UGIF pour jeunes filles[3] où se trouvent 33 jeunes filles juives. Nombre d'entre elles seront déportées par le Convoi no 77, en date du 31 juillet 1944, le dernier grand convoi au départ de la gare de Bobigny, de Drancy vers Auschwitz.
+La rafle de la rue Vauquelin est perpétrée dans la nuit du 21 au 22 juillet 1944 au no 9 de la rue Vauquelin dans le 5e arrondissement de Paris, au siège du Séminaire israélite de France, (ne pouvant pas fonctionner en ces lieux à cause de la guerre) dans un centre de l'UGIF pour jeunes filles où se trouvent 33 jeunes filles juives. Nombre d'entre elles seront déportées par le Convoi no 77, en date du 31 juillet 1944, le dernier grand convoi au départ de la gare de Bobigny, de Drancy vers Auschwitz.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Le Foyer de jeunes filles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En janvier 1943, sur les lieux du Séminaire israélite de France « exilé » s'ouvre un foyer de jeunes filles sous l'égide de l'UGIF, Françoise Mayer[4] est la directrice. Le docteur Eugène Minkowski traite les traumatismes psychologiques des jeunes orphelines[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 1943, sur les lieux du Séminaire israélite de France « exilé » s'ouvre un foyer de jeunes filles sous l'égide de l'UGIF, Françoise Mayer est la directrice. Le docteur Eugène Minkowski traite les traumatismes psychologiques des jeunes orphelines.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>La Rafle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant le lever du jour, le 22 juillet 1944[6] se déroule la rafle de la rue Vauquelin[7]. Les orphelines sont arrêtées un matin d’été[8]. Elles sont raflées et déportées juste avant la Libération de Paris[9], qui a lieu du 19 au 25 août 1944.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant le lever du jour, le 22 juillet 1944 se déroule la rafle de la rue Vauquelin. Les orphelines sont arrêtées un matin d’été. Elles sont raflées et déportées juste avant la Libération de Paris, qui a lieu du 19 au 25 août 1944.
 </t>
         </is>
       </c>
@@ -574,24 +590,61 @@
           <t>Déportées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les noms des jeunes filles (et adultes) déportées par le Convoi No. 77 de Drancy vers Auschwitz sont par ordre alphabétique[10],[11]:
-Jeunes filles
-Jeanine Akoun (15 ans)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms des jeunes filles (et adultes) déportées par le Convoi No. 77 de Drancy vers Auschwitz sont par ordre alphabétique,:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rafle_de_la_rue_Vauquelin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rafle_de_la_rue_Vauquelin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Déportées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jeunes filles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeanine Akoun (15 ans)
 Elle est née le 3 août 1928 dans le 14e arrondissement de Paris. Son père, Chemouel Akoun (55 ans), est né le 24 novembre 1888 à Alger en Algérie. Il est déporté par le Convoi No. 62, en date du 20 novembre 1943, de Drancy vers Auschwitz. Leur dernière adresse est au 29, rue Deparcieux dans le 14e arrondissement de Paris
 Suzanne Barman (15 ans)
-Elle est née le 18 août 1928 dans le 10e arrondissement de Paris. Son frère, Jules Barman (19 ans), est né le 25 mars 1925 à Paris. Il est déporté par le Convoi No. 75. Leur dernière adresse est au 40, rue du Ruisseau dans le 18e arrondissement de Paris[12]
+Elle est née le 18 août 1928 dans le 10e arrondissement de Paris. Son frère, Jules Barman (19 ans), est né le 25 mars 1925 à Paris. Il est déporté par le Convoi No. 75. Leur dernière adresse est au 40, rue du Ruisseau dans le 18e arrondissement de Paris
 Marie Benazra (16 ans)
-Elle est née le 17 novembre 1927 à Marseille. Sa mère, Malka Benazra (née Benazra) (33), est née le 9 octobre 1910 à  Smyrne (Izmir) en Turquie, est déportée par le Convoi No. No. 74, en date du 20 mai 1944, de Drancy vers Auschwitz, avec ses autres enfants: Judith Benazra (12 ans), née le 19 août 1931, dans le 12e arrondissement de Paris, Rose Benazra (14 ans), née le 21 avril 1930 dans le 12e arrondissement de Paris. Leur dernière adresse est au 10, rue Popincourt dans le 11e arrondissement de Paris[13]
+Elle est née le 17 novembre 1927 à Marseille. Sa mère, Malka Benazra (née Benazra) (33), est née le 9 octobre 1910 à  Smyrne (Izmir) en Turquie, est déportée par le Convoi No. No. 74, en date du 20 mai 1944, de Drancy vers Auschwitz, avec ses autres enfants: Judith Benazra (12 ans), née le 19 août 1931, dans le 12e arrondissement de Paris, Rose Benazra (14 ans), née le 21 avril 1930 dans le 12e arrondissement de Paris. Leur dernière adresse est au 10, rue Popincourt dans le 11e arrondissement de Paris
 Liki Bornsztajn (16 ans)
-Elle est née le 27 août 1927 à Nancy. Sa mère, Golda Bornsztajn (née Agrest) (43 ans), est née le 6 septembre 1899 à Łuków, en Pologne. Elle est déportée par le Convoi No. 42, en date du 6 novembre 1942 de Drancy vers Auschwitz. Leur dernière adresse est à Savigny-sous-Faye dans la Vienne[14]
+Elle est née le 27 août 1927 à Nancy. Sa mère, Golda Bornsztajn (née Agrest) (43 ans), est née le 6 septembre 1899 à Łuków, en Pologne. Elle est déportée par le Convoi No. 42, en date du 6 novembre 1942 de Drancy vers Auschwitz. Leur dernière adresse est à Savigny-sous-Faye dans la Vienne
 Fortunée Brakha (17 ans)
 Elle est née le 21 mai 1927 à Tunis en Tunisie. Sa dernière adresse est au 5, rue des Nonnains-d'Hyères dans le 4e arrondissement de Paris
-Yvette Dreyfuss (18 ans)[15]
+Yvette Dreyfuss (18 ans)
 Elle est née le 21 juin 1926 à Paris. Sa dernière adresse est au 89, rue Lamarck dans le 18e arrondissement de Paris
 Ida Friedmann (16 ans)
-Elle est née le 9 décembre 1927 dans le 14e arrondissement de Paris. Sa dernière adresse est : Orphelinat Rothschild au 7, rue de Lamblardie dans le 12e arrondissement de Paris. Elle est la fille de Bernard Friedmann (56 ans), né le 31 décembre 1886 à Varsovie, en Pologne, fusillé comme otage le 15 décembre 1941 à Caen (Calvados). Il était bichonneur en chapeau, syndicaliste, communiste[16]. 
+Elle est née le 9 décembre 1927 dans le 14e arrondissement de Paris. Sa dernière adresse est : Orphelinat Rothschild au 7, rue de Lamblardie dans le 12e arrondissement de Paris. Elle est la fille de Bernard Friedmann (56 ans), né le 31 décembre 1886 à Varsovie, en Pologne, fusillé comme otage le 15 décembre 1941 à Caen (Calvados). Il était bichonneur en chapeau, syndicaliste, communiste. 
 Mathilde Jaffe (18 ans)
 Elle est née le 7 novembre 1925 à Lyon. Sa dernière adresse est : Orphelinat Rothschild au 7 rue de Lamblardie dans le 12e arrondissement de Paris Sa sœur Esther Jaffe (16 ans), née le 18 septembre 1927 à Lyon, est aussi déportée par le Convoi no 77, et est morte à Bergen-Belsen en mars 1945. Sa dernière adresse est : Orphelinat Rothschild au 7 rue de Lamblardie dans le 12e arrondissement de Paris. Elle était à l'UGIF/Secrétan.
 Neja Goldsztejn (21 ans)
@@ -630,8 +683,43 @@
 Elle est née le 15 août 1928 dans le 18e arrondissement de Paris. Elle est la sœur de Simone Zuckermann (17 ans). Leur autre sœur, Fanny Zuckermann (31 ans), née le 18 septembre 1920 à Leipzig en Allemagne, est déportée par le Convoi No. 33, en date du 16 septembre 1942, de Drancy vers Auschwitz. Leur dernière adresse est au 25, impasse de la Couture-d'Auxerre à Gennevilliers (Seine).
 Simone Zuckermann (17 ans).
 Elle est née le 5 octobre 1926 à Paris. Elle est la sœur de Georgette Zuckermann (15 ans). Leur autre sœur, Fanny Zuckermann (31 ans), née le 18 septembre 1920 à Leipzig en Allemagne, est déportée par le Convoi No. 33, en date du 16 septembre 1942, de Drancy vers Auschwitz. Leur dernière adresse est au 25, impasse de la Couture-d'Auxerre à Gennevilliers (Seine).
-Adultes
-Germaine Israël (née Joseph) (55 ans)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rafle_de_la_rue_Vauquelin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rafle_de_la_rue_Vauquelin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Déportées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adultes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Germaine Israël (née Joseph) (55 ans)
 Elle est née le 20 novembre 1889 à Sarreguemines. Sa dernière adresse est au 28 rue Duperré dans le 9e arrondissement de Paris.
 Fradel Kohn (née Wagner) (50 ans)
 Elle est née le 28 août 1894 à Mościska en Pologne. Sa dernière adresse est au 9 rue Vauquelin dans le 5e arrondissement de Paris. Son mari, Victor Kohn (43 ans), est aussi déporté dans le même Convoi No. 77.
@@ -651,33 +739,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Rafle_de_la_rue_Vauquelin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rafle_de_la_rue_Vauquelin</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>plaque commémorative : Jeunes filles juives, 9 rue Vauquelin[17].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>plaque commémorative : Jeunes filles juives, 9 rue Vauquelin.</t>
         </is>
       </c>
     </row>
